--- a/docs/planningdocuments/gannt/GanttChart_POS_5.xlsx
+++ b/docs/planningdocuments/gannt/GanttChart_POS_5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\CPS353-POS\docs\planningdocuments\gannt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D7E6860-4CC1-46D0-89A7-57092C62FCEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B323F1-444F-4B01-BF82-3441B148650B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -910,6 +910,27 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -924,14 +945,9 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -941,22 +957,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1278,8 +1278,8 @@
   </sheetPr>
   <dimension ref="A1:BZ58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1375,38 +1375,38 @@
     </row>
     <row r="2" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="57"/>
-      <c r="AC2" s="57"/>
-      <c r="AD2" s="57"/>
-      <c r="AE2" s="57"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="68"/>
       <c r="AF2" s="11"/>
       <c r="AG2" s="11"/>
       <c r="AH2" s="11"/>
@@ -1535,13 +1535,13 @@
       <c r="BY3" s="1"/>
       <c r="BZ3" s="1"/>
     </row>
-    <row r="4" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="1"/>
       <c r="B4" s="60" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="61"/>
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="71" t="s">
         <v>101</v>
       </c>
       <c r="E4" s="63"/>
@@ -1557,7 +1557,7 @@
       <c r="M4" s="61"/>
       <c r="N4" s="61"/>
       <c r="O4" s="61"/>
-      <c r="P4" s="64" t="s">
+      <c r="P4" s="72" t="s">
         <v>2</v>
       </c>
       <c r="Q4" s="63"/>
@@ -1623,13 +1623,13 @@
       <c r="BY4" s="1"/>
       <c r="BZ4" s="1"/>
     </row>
-    <row r="5" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A5" s="1"/>
       <c r="B5" s="60" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="61"/>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="62" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="63"/>
@@ -1645,7 +1645,7 @@
       <c r="M5" s="61"/>
       <c r="N5" s="61"/>
       <c r="O5" s="61"/>
-      <c r="P5" s="75">
+      <c r="P5" s="64">
         <v>44837</v>
       </c>
       <c r="Q5" s="63"/>
@@ -1961,205 +1961,205 @@
     </row>
     <row r="9" spans="1:78" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="54" t="s">
+      <c r="E9" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="54" t="s">
+      <c r="F9" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="54" t="s">
+      <c r="G9" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="65" t="s">
+      <c r="H9" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="67"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="68"/>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="68"/>
-      <c r="R9" s="68"/>
-      <c r="S9" s="68"/>
-      <c r="T9" s="68"/>
-      <c r="U9" s="68"/>
-      <c r="V9" s="68"/>
-      <c r="W9" s="68"/>
-      <c r="X9" s="69"/>
-      <c r="Y9" s="68"/>
-      <c r="Z9" s="68"/>
-      <c r="AA9" s="68"/>
-      <c r="AB9" s="68"/>
-      <c r="AC9" s="68"/>
-      <c r="AD9" s="68"/>
-      <c r="AE9" s="68"/>
-      <c r="AF9" s="68"/>
-      <c r="AG9" s="68"/>
-      <c r="AH9" s="68"/>
-      <c r="AI9" s="68"/>
-      <c r="AJ9" s="68"/>
-      <c r="AK9" s="68"/>
-      <c r="AL9" s="68"/>
-      <c r="AM9" s="69"/>
-      <c r="AN9" s="68"/>
-      <c r="AO9" s="68"/>
-      <c r="AP9" s="68"/>
-      <c r="AQ9" s="68"/>
-      <c r="AR9" s="68"/>
-      <c r="AS9" s="68"/>
-      <c r="AT9" s="68"/>
-      <c r="AU9" s="68"/>
-      <c r="AV9" s="68"/>
-      <c r="AW9" s="68"/>
-      <c r="AX9" s="68"/>
-      <c r="AY9" s="68"/>
-      <c r="AZ9" s="68"/>
-      <c r="BA9" s="68"/>
-      <c r="BB9" s="69"/>
-      <c r="BC9" s="68"/>
-      <c r="BD9" s="68"/>
-      <c r="BE9" s="68"/>
-      <c r="BF9" s="68"/>
-      <c r="BG9" s="68"/>
-      <c r="BH9" s="68"/>
-      <c r="BI9" s="68"/>
-      <c r="BJ9" s="68"/>
-      <c r="BK9" s="68"/>
-      <c r="BL9" s="68"/>
-      <c r="BM9" s="68"/>
-      <c r="BN9" s="68"/>
-      <c r="BO9" s="68"/>
-      <c r="BP9" s="68"/>
-      <c r="BQ9" s="68"/>
-      <c r="BR9" s="68"/>
-      <c r="BS9" s="68"/>
-      <c r="BT9" s="68"/>
-      <c r="BU9" s="68"/>
-      <c r="BV9" s="68"/>
-      <c r="BW9" s="68"/>
-      <c r="BX9" s="68"/>
-      <c r="BY9" s="68"/>
-      <c r="BZ9" s="73"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="55"/>
+      <c r="S9" s="55"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="55"/>
+      <c r="W9" s="55"/>
+      <c r="X9" s="54"/>
+      <c r="Y9" s="55"/>
+      <c r="Z9" s="55"/>
+      <c r="AA9" s="55"/>
+      <c r="AB9" s="55"/>
+      <c r="AC9" s="55"/>
+      <c r="AD9" s="55"/>
+      <c r="AE9" s="55"/>
+      <c r="AF9" s="55"/>
+      <c r="AG9" s="55"/>
+      <c r="AH9" s="55"/>
+      <c r="AI9" s="55"/>
+      <c r="AJ9" s="55"/>
+      <c r="AK9" s="55"/>
+      <c r="AL9" s="55"/>
+      <c r="AM9" s="54"/>
+      <c r="AN9" s="55"/>
+      <c r="AO9" s="55"/>
+      <c r="AP9" s="55"/>
+      <c r="AQ9" s="55"/>
+      <c r="AR9" s="55"/>
+      <c r="AS9" s="55"/>
+      <c r="AT9" s="55"/>
+      <c r="AU9" s="55"/>
+      <c r="AV9" s="55"/>
+      <c r="AW9" s="55"/>
+      <c r="AX9" s="55"/>
+      <c r="AY9" s="55"/>
+      <c r="AZ9" s="55"/>
+      <c r="BA9" s="55"/>
+      <c r="BB9" s="54"/>
+      <c r="BC9" s="55"/>
+      <c r="BD9" s="55"/>
+      <c r="BE9" s="55"/>
+      <c r="BF9" s="55"/>
+      <c r="BG9" s="55"/>
+      <c r="BH9" s="55"/>
+      <c r="BI9" s="55"/>
+      <c r="BJ9" s="55"/>
+      <c r="BK9" s="55"/>
+      <c r="BL9" s="55"/>
+      <c r="BM9" s="55"/>
+      <c r="BN9" s="55"/>
+      <c r="BO9" s="55"/>
+      <c r="BP9" s="55"/>
+      <c r="BQ9" s="55"/>
+      <c r="BR9" s="55"/>
+      <c r="BS9" s="55"/>
+      <c r="BT9" s="55"/>
+      <c r="BU9" s="55"/>
+      <c r="BV9" s="55"/>
+      <c r="BW9" s="55"/>
+      <c r="BX9" s="55"/>
+      <c r="BY9" s="55"/>
+      <c r="BZ9" s="56"/>
     </row>
     <row r="10" spans="1:78" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="70" t="s">
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="72"/>
-      <c r="N10" s="70" t="s">
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="O10" s="71"/>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="71"/>
-      <c r="R10" s="72"/>
-      <c r="S10" s="70" t="s">
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="T10" s="71"/>
-      <c r="U10" s="71"/>
-      <c r="V10" s="71"/>
-      <c r="W10" s="72"/>
-      <c r="X10" s="70" t="s">
+      <c r="T10" s="58"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="59"/>
+      <c r="X10" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="Y10" s="71"/>
-      <c r="Z10" s="71"/>
-      <c r="AA10" s="71"/>
-      <c r="AB10" s="72"/>
-      <c r="AC10" s="70" t="s">
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="58"/>
+      <c r="AB10" s="59"/>
+      <c r="AC10" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="AD10" s="71"/>
-      <c r="AE10" s="71"/>
-      <c r="AF10" s="71"/>
-      <c r="AG10" s="72"/>
-      <c r="AH10" s="70" t="s">
+      <c r="AD10" s="58"/>
+      <c r="AE10" s="58"/>
+      <c r="AF10" s="58"/>
+      <c r="AG10" s="59"/>
+      <c r="AH10" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="AI10" s="71"/>
-      <c r="AJ10" s="71"/>
-      <c r="AK10" s="71"/>
-      <c r="AL10" s="72"/>
-      <c r="AM10" s="70" t="s">
+      <c r="AI10" s="58"/>
+      <c r="AJ10" s="58"/>
+      <c r="AK10" s="58"/>
+      <c r="AL10" s="59"/>
+      <c r="AM10" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="AN10" s="71"/>
-      <c r="AO10" s="71"/>
-      <c r="AP10" s="71"/>
-      <c r="AQ10" s="72"/>
-      <c r="AR10" s="70" t="s">
+      <c r="AN10" s="58"/>
+      <c r="AO10" s="58"/>
+      <c r="AP10" s="58"/>
+      <c r="AQ10" s="59"/>
+      <c r="AR10" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="AS10" s="71"/>
-      <c r="AT10" s="71"/>
-      <c r="AU10" s="71"/>
-      <c r="AV10" s="72"/>
-      <c r="AW10" s="70" t="s">
+      <c r="AS10" s="58"/>
+      <c r="AT10" s="58"/>
+      <c r="AU10" s="58"/>
+      <c r="AV10" s="59"/>
+      <c r="AW10" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="AX10" s="71"/>
-      <c r="AY10" s="71"/>
-      <c r="AZ10" s="71"/>
-      <c r="BA10" s="72"/>
-      <c r="BB10" s="70" t="s">
+      <c r="AX10" s="58"/>
+      <c r="AY10" s="58"/>
+      <c r="AZ10" s="58"/>
+      <c r="BA10" s="59"/>
+      <c r="BB10" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="BC10" s="71"/>
-      <c r="BD10" s="71"/>
-      <c r="BE10" s="71"/>
-      <c r="BF10" s="72"/>
-      <c r="BG10" s="70" t="s">
+      <c r="BC10" s="58"/>
+      <c r="BD10" s="58"/>
+      <c r="BE10" s="58"/>
+      <c r="BF10" s="59"/>
+      <c r="BG10" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="BH10" s="71"/>
-      <c r="BI10" s="71"/>
-      <c r="BJ10" s="71"/>
-      <c r="BK10" s="72"/>
-      <c r="BL10" s="70" t="s">
+      <c r="BH10" s="58"/>
+      <c r="BI10" s="58"/>
+      <c r="BJ10" s="58"/>
+      <c r="BK10" s="59"/>
+      <c r="BL10" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="BM10" s="71"/>
-      <c r="BN10" s="71"/>
-      <c r="BO10" s="71"/>
-      <c r="BP10" s="72"/>
-      <c r="BQ10" s="70" t="s">
+      <c r="BM10" s="58"/>
+      <c r="BN10" s="58"/>
+      <c r="BO10" s="58"/>
+      <c r="BP10" s="59"/>
+      <c r="BQ10" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="BR10" s="71"/>
-      <c r="BS10" s="71"/>
-      <c r="BT10" s="71"/>
-      <c r="BU10" s="72"/>
-      <c r="BV10" s="70" t="s">
+      <c r="BR10" s="58"/>
+      <c r="BS10" s="58"/>
+      <c r="BT10" s="58"/>
+      <c r="BU10" s="59"/>
+      <c r="BV10" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="BW10" s="71"/>
-      <c r="BX10" s="71"/>
-      <c r="BY10" s="71"/>
-      <c r="BZ10" s="72"/>
+      <c r="BW10" s="58"/>
+      <c r="BX10" s="58"/>
+      <c r="BY10" s="58"/>
+      <c r="BZ10" s="59"/>
     </row>
     <row r="11" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
@@ -4164,11 +4164,13 @@
         <v>82</v>
       </c>
       <c r="D33" s="34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E33" s="35"/>
       <c r="F33" s="35"/>
-      <c r="G33" s="36"/>
+      <c r="G33" s="36">
+        <v>0</v>
+      </c>
       <c r="H33" s="51">
         <v>0</v>
       </c>
@@ -6458,6 +6460,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="O2:AE2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:AB4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:W9"/>
+    <mergeCell ref="X9:AL9"/>
+    <mergeCell ref="AM9:BA9"/>
+    <mergeCell ref="X10:AB10"/>
+    <mergeCell ref="AC10:AG10"/>
+    <mergeCell ref="AH10:AL10"/>
+    <mergeCell ref="AM10:AQ10"/>
+    <mergeCell ref="AR10:AV10"/>
+    <mergeCell ref="AW10:BA10"/>
     <mergeCell ref="BB9:BZ9"/>
     <mergeCell ref="I10:M10"/>
     <mergeCell ref="N10:R10"/>
@@ -6474,26 +6496,6 @@
     <mergeCell ref="BQ10:BU10"/>
     <mergeCell ref="BV10:BZ10"/>
     <mergeCell ref="S10:W10"/>
-    <mergeCell ref="AM9:BA9"/>
-    <mergeCell ref="X10:AB10"/>
-    <mergeCell ref="AC10:AG10"/>
-    <mergeCell ref="AH10:AL10"/>
-    <mergeCell ref="AM10:AQ10"/>
-    <mergeCell ref="AR10:AV10"/>
-    <mergeCell ref="AW10:BA10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="O2:AE2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:AB4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:W9"/>
-    <mergeCell ref="X9:AL9"/>
   </mergeCells>
   <conditionalFormatting sqref="H12:H21 H23:H58">
     <cfRule type="colorScale" priority="3">
@@ -6527,6 +6529,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F7EF2104F2CEFE4DACFBF5BA7D93FB4D" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bb0ed258f694207805e211ca255f9b46">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6b71f768-6d8b-468c-a986-1e1afc74f0e3" xmlns:ns4="d07d918a-d172-4450-8f4a-7b087689ff85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c03c9fe975be0719773112499dde791" ns3:_="" ns4:_="">
     <xsd:import namespace="6b71f768-6d8b-468c-a986-1e1afc74f0e3"/>
@@ -6755,15 +6766,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14D564B3-5264-41FC-B8E0-395B567D9994}">
   <ds:schemaRefs>
@@ -6782,6 +6784,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7F187D4-7552-4664-8374-8AA9CBDA3C6B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FABC364-430D-422C-AD85-145699D2125C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6798,12 +6808,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7F187D4-7552-4664-8374-8AA9CBDA3C6B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>